--- a/dictionaries/health_facility/cod_type_dictionary.xlsx
+++ b/dictionaries/health_facility/cod_type_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\GRID3\dictionaries\health_facilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\GRID3\dictionaries\health_facility\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -33,36 +33,18 @@
     <t>Ssc</t>
   </si>
   <si>
-    <t>hopital</t>
-  </si>
-  <si>
     <t>Hopital</t>
   </si>
   <si>
     <t>Bcz</t>
   </si>
   <si>
-    <t>Centre de Santé</t>
-  </si>
-  <si>
-    <t>Poste de Santé</t>
-  </si>
-  <si>
     <t>Centre Hospitalier</t>
   </si>
   <si>
-    <t>Centre Médical</t>
-  </si>
-  <si>
-    <t>Hôpital Général de Référence</t>
-  </si>
-  <si>
     <t>Dispensaire</t>
   </si>
   <si>
-    <t>Centre de Santé de Référence</t>
-  </si>
-  <si>
     <t>Polyclinique</t>
   </si>
   <si>
@@ -75,9 +57,6 @@
     <t>COD</t>
   </si>
   <si>
-    <t>Bureau central de la Zone de Santé </t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
@@ -111,10 +90,28 @@
     <t>CLIN</t>
   </si>
   <si>
-    <t>Maternité de Référence</t>
-  </si>
-  <si>
     <t>MR</t>
+  </si>
+  <si>
+    <t>Centre de Sante</t>
+  </si>
+  <si>
+    <t>Poste de Sante</t>
+  </si>
+  <si>
+    <t>Centre Medical</t>
+  </si>
+  <si>
+    <t>Hopital General de Reference</t>
+  </si>
+  <si>
+    <t>Centre de Sante de Reference</t>
+  </si>
+  <si>
+    <t>Bureau central de la Zone de Sante</t>
+  </si>
+  <si>
+    <t>Maternite de Reference</t>
   </si>
 </sst>
 </file>
@@ -393,12 +390,12 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -414,24 +411,24 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -439,65 +436,65 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -505,65 +502,65 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -571,10 +568,10 @@
         <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
